--- a/docs/TestCaseTestform3.xlsx
+++ b/docs/TestCaseTestform3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunar\eclipse-workspace\SeleniumMavenProjekt1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC006C3F-8927-4C19-904C-DACC9622C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="35736" yWindow="1176" windowWidth="24288" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testform3" sheetId="1" r:id="rId1"/>
@@ -129,9 +130,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Formular  44</t>
-  </si>
-  <si>
     <t>Barmer Berlin</t>
   </si>
   <si>
@@ -196,12 +194,15 @@
   </si>
   <si>
     <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Formular 44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,25 +540,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -622,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -663,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2">
         <v>23840</v>
@@ -687,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -725,10 +727,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
         <v>27730</v>
@@ -743,16 +745,16 @@
         <v>20537</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -766,34 +768,34 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1">
         <v>22222</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1">
         <v>545345</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1">
         <v>20323</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
         <v>23935</v>
@@ -811,13 +813,13 @@
         <v>20</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -831,19 +833,19 @@
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>33222</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1">
         <v>661223</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1">
         <v>20537</v>
@@ -852,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2">
         <v>33970</v>
@@ -873,16 +875,16 @@
         <v>20111</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -896,34 +898,34 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>33222</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1">
         <v>92312</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1">
         <v>64686</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2">
         <v>30402</v>
@@ -938,13 +940,13 @@
         <v>34922</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -954,12 +956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
